--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.861347467883</v>
+        <v>15.52556533333333</v>
       </c>
       <c r="H2">
-        <v>13.861347467883</v>
+        <v>46.576696</v>
       </c>
       <c r="I2">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="J2">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N2">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q2">
-        <v>5.846609272002576</v>
+        <v>32.48402131759911</v>
       </c>
       <c r="R2">
-        <v>5.846609272002576</v>
+        <v>292.356191858392</v>
       </c>
       <c r="S2">
-        <v>0.00603192782729242</v>
+        <v>0.02490553479650698</v>
       </c>
       <c r="T2">
-        <v>0.00603192782729242</v>
+        <v>0.02490553479650698</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.861347467883</v>
+        <v>15.52556533333333</v>
       </c>
       <c r="H3">
-        <v>13.861347467883</v>
+        <v>46.576696</v>
       </c>
       <c r="I3">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="J3">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N3">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q3">
-        <v>34.20076367013262</v>
+        <v>38.32276724920177</v>
       </c>
       <c r="R3">
-        <v>34.20076367013262</v>
+        <v>344.904905242816</v>
       </c>
       <c r="S3">
-        <v>0.03528481697663783</v>
+        <v>0.02938210771048639</v>
       </c>
       <c r="T3">
-        <v>0.03528481697663783</v>
+        <v>0.02938210771048639</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.861347467883</v>
+        <v>15.52556533333333</v>
       </c>
       <c r="H4">
-        <v>13.861347467883</v>
+        <v>46.576696</v>
       </c>
       <c r="I4">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="J4">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N4">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q4">
-        <v>2.838933377816211</v>
+        <v>4.905069483586666</v>
       </c>
       <c r="R4">
-        <v>2.838933377816211</v>
+        <v>44.14562535227999</v>
       </c>
       <c r="S4">
-        <v>0.002928918360164932</v>
+        <v>0.003760722156544297</v>
       </c>
       <c r="T4">
-        <v>0.002928918360164932</v>
+        <v>0.003760722156544296</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.861347467883</v>
+        <v>15.52556533333333</v>
       </c>
       <c r="H5">
-        <v>13.861347467883</v>
+        <v>46.576696</v>
       </c>
       <c r="I5">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="J5">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N5">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q5">
-        <v>5.609887177192808</v>
+        <v>7.305808351833778</v>
       </c>
       <c r="R5">
-        <v>5.609887177192808</v>
+        <v>65.75227516650401</v>
       </c>
       <c r="S5">
-        <v>0.005787702409689147</v>
+        <v>0.005601371281720848</v>
       </c>
       <c r="T5">
-        <v>0.005787702409689147</v>
+        <v>0.005601371281720848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.861347467883</v>
+        <v>15.52556533333333</v>
       </c>
       <c r="H6">
-        <v>13.861347467883</v>
+        <v>46.576696</v>
       </c>
       <c r="I6">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="J6">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N6">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q6">
-        <v>152.6661117847611</v>
+        <v>175.3113612730187</v>
       </c>
       <c r="R6">
-        <v>152.6661117847611</v>
+        <v>1577.802251457168</v>
       </c>
       <c r="S6">
-        <v>0.1575051324823045</v>
+        <v>0.1344114130981268</v>
       </c>
       <c r="T6">
-        <v>0.1575051324823045</v>
+        <v>0.1344114130981268</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.861347467883</v>
+        <v>15.52556533333333</v>
       </c>
       <c r="H7">
-        <v>13.861347467883</v>
+        <v>46.576696</v>
       </c>
       <c r="I7">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="J7">
-        <v>0.2106415833677101</v>
+        <v>0.2011808416743998</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N7">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q7">
-        <v>3.007749408514285</v>
+        <v>4.068981564067555</v>
       </c>
       <c r="R7">
-        <v>3.007749408514285</v>
+        <v>36.620834076608</v>
       </c>
       <c r="S7">
-        <v>0.00310308531162122</v>
+        <v>0.00311969263101444</v>
       </c>
       <c r="T7">
-        <v>0.00310308531162122</v>
+        <v>0.003119692631014439</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.8663284099668</v>
+        <v>12.96389933333333</v>
       </c>
       <c r="H8">
-        <v>12.8663284099668</v>
+        <v>38.891698</v>
       </c>
       <c r="I8">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="J8">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N8">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q8">
-        <v>5.42691792068833</v>
+        <v>27.12426718523844</v>
       </c>
       <c r="R8">
-        <v>5.42691792068833</v>
+        <v>244.118404667146</v>
       </c>
       <c r="S8">
-        <v>0.00559893362106265</v>
+        <v>0.02079620542071599</v>
       </c>
       <c r="T8">
-        <v>0.00559893362106265</v>
+        <v>0.020796205420716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.8663284099668</v>
+        <v>12.96389933333333</v>
       </c>
       <c r="H9">
-        <v>12.8663284099668</v>
+        <v>38.891698</v>
       </c>
       <c r="I9">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="J9">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N9">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q9">
-        <v>31.74570569500293</v>
+        <v>31.99963969922311</v>
       </c>
       <c r="R9">
-        <v>31.74570569500293</v>
+        <v>287.996757293008</v>
       </c>
       <c r="S9">
-        <v>0.03275194162464279</v>
+        <v>0.02453415887807302</v>
       </c>
       <c r="T9">
-        <v>0.03275194162464279</v>
+        <v>0.02453415887807302</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.8663284099668</v>
+        <v>12.96389933333333</v>
       </c>
       <c r="H10">
-        <v>12.8663284099668</v>
+        <v>38.891698</v>
       </c>
       <c r="I10">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="J10">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N10">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q10">
-        <v>2.635144184765057</v>
+        <v>4.095749535876666</v>
       </c>
       <c r="R10">
-        <v>2.635144184765057</v>
+        <v>36.86174582288999</v>
       </c>
       <c r="S10">
-        <v>0.002718669710515442</v>
+        <v>0.003140215664379232</v>
       </c>
       <c r="T10">
-        <v>0.002718669710515442</v>
+        <v>0.003140215664379232</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.8663284099668</v>
+        <v>12.96389933333333</v>
       </c>
       <c r="H11">
-        <v>12.8663284099668</v>
+        <v>38.891698</v>
       </c>
       <c r="I11">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="J11">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N11">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q11">
-        <v>5.207188617979857</v>
+        <v>6.100374574989111</v>
       </c>
       <c r="R11">
-        <v>5.207188617979857</v>
+        <v>54.903371174902</v>
       </c>
       <c r="S11">
-        <v>0.005372239611968244</v>
+        <v>0.004677163882010011</v>
       </c>
       <c r="T11">
-        <v>0.005372239611968244</v>
+        <v>0.004677163882010011</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.8663284099668</v>
+        <v>12.96389933333333</v>
       </c>
       <c r="H12">
-        <v>12.8663284099668</v>
+        <v>38.891698</v>
       </c>
       <c r="I12">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="J12">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N12">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q12">
-        <v>141.7071706662464</v>
+        <v>146.3855769975426</v>
       </c>
       <c r="R12">
-        <v>141.7071706662464</v>
+        <v>1317.470192977884</v>
       </c>
       <c r="S12">
-        <v>0.1461988284665778</v>
+        <v>0.1122339825471003</v>
       </c>
       <c r="T12">
-        <v>0.1461988284665778</v>
+        <v>0.1122339825471003</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.8663284099668</v>
+        <v>12.96389933333333</v>
       </c>
       <c r="H13">
-        <v>12.8663284099668</v>
+        <v>38.891698</v>
       </c>
       <c r="I13">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="J13">
-        <v>0.1955209473454081</v>
+        <v>0.16798668024427</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N13">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q13">
-        <v>2.791841973119408</v>
+        <v>3.397613307678222</v>
       </c>
       <c r="R13">
-        <v>2.791841973119408</v>
+        <v>30.578519769104</v>
       </c>
       <c r="S13">
-        <v>0.00288033431064119</v>
+        <v>0.002604953851991542</v>
       </c>
       <c r="T13">
-        <v>0.00288033431064119</v>
+        <v>0.002604953851991542</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.23098556456649</v>
+        <v>7.281231333333333</v>
       </c>
       <c r="H14">
-        <v>5.23098556456649</v>
+        <v>21.843694</v>
       </c>
       <c r="I14">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="J14">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N14">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q14">
-        <v>2.206389297603907</v>
+        <v>15.23446449595978</v>
       </c>
       <c r="R14">
-        <v>2.206389297603907</v>
+        <v>137.110180463638</v>
       </c>
       <c r="S14">
-        <v>0.002276324683742492</v>
+        <v>0.0116802806493885</v>
       </c>
       <c r="T14">
-        <v>0.002276324683742492</v>
+        <v>0.0116802806493885</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.23098556456649</v>
+        <v>7.281231333333333</v>
       </c>
       <c r="H15">
-        <v>5.23098556456649</v>
+        <v>21.843694</v>
       </c>
       <c r="I15">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="J15">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N15">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q15">
-        <v>12.90666015480364</v>
+        <v>17.97273900718044</v>
       </c>
       <c r="R15">
-        <v>12.90666015480364</v>
+        <v>161.754651064624</v>
       </c>
       <c r="S15">
-        <v>0.01331575942965324</v>
+        <v>0.01377971872248957</v>
       </c>
       <c r="T15">
-        <v>0.01331575942965324</v>
+        <v>0.01377971872248957</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.23098556456649</v>
+        <v>7.281231333333333</v>
       </c>
       <c r="H16">
-        <v>5.23098556456649</v>
+        <v>21.843694</v>
       </c>
       <c r="I16">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="J16">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N16">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q16">
-        <v>1.071354682690935</v>
+        <v>2.300395821296667</v>
       </c>
       <c r="R16">
-        <v>1.071354682690935</v>
+        <v>20.70356239167</v>
       </c>
       <c r="S16">
-        <v>0.001105313152081055</v>
+        <v>0.001763716000949782</v>
       </c>
       <c r="T16">
-        <v>0.001105313152081055</v>
+        <v>0.001763716000949782</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.23098556456649</v>
+        <v>7.281231333333333</v>
       </c>
       <c r="H17">
-        <v>5.23098556456649</v>
+        <v>21.843694</v>
       </c>
       <c r="I17">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="J17">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N17">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q17">
-        <v>2.117055279851811</v>
+        <v>3.426302330678445</v>
       </c>
       <c r="R17">
-        <v>2.117055279851811</v>
+        <v>30.836720976106</v>
       </c>
       <c r="S17">
-        <v>0.002184159067308517</v>
+        <v>0.002626949757412977</v>
       </c>
       <c r="T17">
-        <v>0.002184159067308517</v>
+        <v>0.002626949757412978</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.23098556456649</v>
+        <v>7.281231333333333</v>
       </c>
       <c r="H18">
-        <v>5.23098556456649</v>
+        <v>21.843694</v>
       </c>
       <c r="I18">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="J18">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N18">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q18">
-        <v>57.61302995938433</v>
+        <v>82.21810603249467</v>
       </c>
       <c r="R18">
-        <v>57.61302995938433</v>
+        <v>739.962954292452</v>
       </c>
       <c r="S18">
-        <v>0.05943917618897264</v>
+        <v>0.06303671213224474</v>
       </c>
       <c r="T18">
-        <v>0.05943917618897264</v>
+        <v>0.06303671213224474</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.23098556456649</v>
+        <v>7.281231333333333</v>
       </c>
       <c r="H19">
-        <v>5.23098556456649</v>
+        <v>21.843694</v>
       </c>
       <c r="I19">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="J19">
-        <v>0.07949177267556111</v>
+        <v>0.09435046110179299</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N19">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q19">
-        <v>1.135062357698371</v>
+        <v>1.908284524456889</v>
       </c>
       <c r="R19">
-        <v>1.135062357698371</v>
+        <v>17.174560720112</v>
       </c>
       <c r="S19">
-        <v>0.001171040153803172</v>
+        <v>0.001463083839307415</v>
       </c>
       <c r="T19">
-        <v>0.001171040153803172</v>
+        <v>0.001463083839307415</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.61645760332055</v>
+        <v>9.350440000000001</v>
       </c>
       <c r="H20">
-        <v>3.61645760332055</v>
+        <v>28.05132</v>
       </c>
       <c r="I20">
-        <v>0.05495687612699159</v>
+        <v>0.121163342450867</v>
       </c>
       <c r="J20">
-        <v>0.05495687612699159</v>
+        <v>0.1211633424508669</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N20">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q20">
-        <v>1.525393877064926</v>
+        <v>19.56385392529334</v>
       </c>
       <c r="R20">
-        <v>1.525393877064926</v>
+        <v>176.07468532764</v>
       </c>
       <c r="S20">
-        <v>0.001573743916616794</v>
+        <v>0.01499962827650876</v>
       </c>
       <c r="T20">
-        <v>0.001573743916616794</v>
+        <v>0.01499962827650876</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.61645760332055</v>
+        <v>9.350440000000001</v>
       </c>
       <c r="H21">
-        <v>3.61645760332055</v>
+        <v>28.05132</v>
       </c>
       <c r="I21">
-        <v>0.05495687612699159</v>
+        <v>0.121163342450867</v>
       </c>
       <c r="J21">
-        <v>0.05495687612699159</v>
+        <v>0.1211633424508669</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N21">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q21">
-        <v>8.923058317440079</v>
+        <v>23.08030194741334</v>
       </c>
       <c r="R21">
-        <v>8.923058317440079</v>
+        <v>207.72271752672</v>
       </c>
       <c r="S21">
-        <v>0.009205890331556978</v>
+        <v>0.0176956928344879</v>
       </c>
       <c r="T21">
-        <v>0.009205890331556978</v>
+        <v>0.01769569283448789</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.61645760332055</v>
+        <v>9.350440000000001</v>
       </c>
       <c r="H22">
-        <v>3.61645760332055</v>
+        <v>28.05132</v>
       </c>
       <c r="I22">
-        <v>0.05495687612699159</v>
+        <v>0.121163342450867</v>
       </c>
       <c r="J22">
-        <v>0.05495687612699159</v>
+        <v>0.1211633424508669</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N22">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q22">
-        <v>0.7406842821964088</v>
+        <v>2.9541312614</v>
       </c>
       <c r="R22">
-        <v>0.7406842821964088</v>
+        <v>26.5871813526</v>
       </c>
       <c r="S22">
-        <v>0.0007641615721463011</v>
+        <v>0.002264935680373596</v>
       </c>
       <c r="T22">
-        <v>0.0007641615721463011</v>
+        <v>0.002264935680373596</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.61645760332055</v>
+        <v>9.350440000000001</v>
       </c>
       <c r="H23">
-        <v>3.61645760332055</v>
+        <v>28.05132</v>
       </c>
       <c r="I23">
-        <v>0.05495687612699159</v>
+        <v>0.121163342450867</v>
       </c>
       <c r="J23">
-        <v>0.05495687612699159</v>
+        <v>0.1211633424508669</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N23">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q23">
-        <v>1.463632535201709</v>
+        <v>4.400002265853334</v>
       </c>
       <c r="R23">
-        <v>1.463632535201709</v>
+        <v>39.60002039268</v>
       </c>
       <c r="S23">
-        <v>0.00151002494048825</v>
+        <v>0.003373486566379927</v>
       </c>
       <c r="T23">
-        <v>0.00151002494048825</v>
+        <v>0.003373486566379927</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.61645760332055</v>
+        <v>9.350440000000001</v>
       </c>
       <c r="H24">
-        <v>3.61645760332055</v>
+        <v>28.05132</v>
       </c>
       <c r="I24">
-        <v>0.05495687612699159</v>
+        <v>0.121163342450867</v>
       </c>
       <c r="J24">
-        <v>0.05495687612699159</v>
+        <v>0.1211633424508669</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N24">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q24">
-        <v>39.83094154537534</v>
+        <v>105.58316748584</v>
       </c>
       <c r="R24">
-        <v>39.83094154537534</v>
+        <v>950.24850737256</v>
       </c>
       <c r="S24">
-        <v>0.041093453233709</v>
+        <v>0.08095073039246382</v>
       </c>
       <c r="T24">
-        <v>0.041093453233709</v>
+        <v>0.08095073039246381</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.61645760332055</v>
+        <v>9.350440000000001</v>
       </c>
       <c r="H25">
-        <v>3.61645760332055</v>
+        <v>28.05132</v>
       </c>
       <c r="I25">
-        <v>0.05495687612699159</v>
+        <v>0.121163342450867</v>
       </c>
       <c r="J25">
-        <v>0.05495687612699159</v>
+        <v>0.1211633424508669</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N25">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q25">
-        <v>0.7847287749266445</v>
+        <v>2.450588249706667</v>
       </c>
       <c r="R25">
-        <v>0.7847287749266445</v>
+        <v>22.05529424736</v>
       </c>
       <c r="S25">
-        <v>0.0008096021324742686</v>
+        <v>0.001878868700652961</v>
       </c>
       <c r="T25">
-        <v>0.0008096021324742686</v>
+        <v>0.001878868700652961</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.30409393500903</v>
+        <v>1.374402</v>
       </c>
       <c r="H26">
-        <v>1.30409393500903</v>
+        <v>4.123206</v>
       </c>
       <c r="I26">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="J26">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N26">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O26">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P26">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q26">
-        <v>0.5500567466223822</v>
+        <v>2.875650767518</v>
       </c>
       <c r="R26">
-        <v>0.5500567466223822</v>
+        <v>25.880856907662</v>
       </c>
       <c r="S26">
-        <v>0.0005674917618370345</v>
+        <v>0.002204764599579291</v>
       </c>
       <c r="T26">
-        <v>0.0005674917618370345</v>
+        <v>0.002204764599579291</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.30409393500903</v>
+        <v>1.374402</v>
       </c>
       <c r="H27">
-        <v>1.30409393500903</v>
+        <v>4.123206</v>
       </c>
       <c r="I27">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="J27">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N27">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P27">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q27">
-        <v>3.217653159495388</v>
+        <v>3.392526250864</v>
       </c>
       <c r="R27">
-        <v>3.217653159495388</v>
+        <v>30.532736257776</v>
       </c>
       <c r="S27">
-        <v>0.003319642330859536</v>
+        <v>0.002601053599948862</v>
       </c>
       <c r="T27">
-        <v>0.003319642330859536</v>
+        <v>0.002601053599948861</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.30409393500903</v>
+        <v>1.374402</v>
       </c>
       <c r="H28">
-        <v>1.30409393500903</v>
+        <v>4.123206</v>
       </c>
       <c r="I28">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="J28">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N28">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O28">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P28">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q28">
-        <v>0.2670906135556423</v>
+        <v>0.4342216958699999</v>
       </c>
       <c r="R28">
-        <v>0.2670906135556423</v>
+        <v>3.907995262829999</v>
       </c>
       <c r="S28">
-        <v>0.000275556519918264</v>
+        <v>0.0003329182507964151</v>
       </c>
       <c r="T28">
-        <v>0.000275556519918264</v>
+        <v>0.0003329182507964151</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.30409393500903</v>
+        <v>1.374402</v>
       </c>
       <c r="H29">
-        <v>1.30409393500903</v>
+        <v>4.123206</v>
       </c>
       <c r="I29">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="J29">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N29">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O29">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P29">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q29">
-        <v>0.5277856183039172</v>
+        <v>0.646747309666</v>
       </c>
       <c r="R29">
-        <v>0.5277856183039172</v>
+        <v>5.820725786994</v>
       </c>
       <c r="S29">
-        <v>0.0005445147109688249</v>
+        <v>0.0004958618721478031</v>
       </c>
       <c r="T29">
-        <v>0.0005445147109688249</v>
+        <v>0.000495861872147803</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.30409393500903</v>
+        <v>1.374402</v>
       </c>
       <c r="H30">
-        <v>1.30409393500903</v>
+        <v>4.123206</v>
       </c>
       <c r="I30">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="J30">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N30">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O30">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P30">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q30">
-        <v>14.36303006769111</v>
+        <v>15.519453261972</v>
       </c>
       <c r="R30">
-        <v>14.36303006769111</v>
+        <v>139.675079357748</v>
       </c>
       <c r="S30">
-        <v>0.01481829154625018</v>
+        <v>0.01189878184907481</v>
       </c>
       <c r="T30">
-        <v>0.01481829154625018</v>
+        <v>0.01189878184907481</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.30409393500903</v>
+        <v>1.374402</v>
       </c>
       <c r="H31">
-        <v>1.30409393500903</v>
+        <v>4.123206</v>
       </c>
       <c r="I31">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="J31">
-        <v>0.01981743924730307</v>
+        <v>0.01780955122872896</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N31">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O31">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P31">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q31">
-        <v>0.2829730493921115</v>
+        <v>0.360206941232</v>
       </c>
       <c r="R31">
-        <v>0.2829730493921115</v>
+        <v>3.241862471088</v>
       </c>
       <c r="S31">
-        <v>0.0002919423774692289</v>
+        <v>0.000276171057181783</v>
       </c>
       <c r="T31">
-        <v>0.0002919423774692289</v>
+        <v>0.000276171057181783</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>28.9261576695768</v>
+        <v>30.676648</v>
       </c>
       <c r="H32">
-        <v>28.9261576695768</v>
+        <v>92.029944</v>
       </c>
       <c r="I32">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="J32">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N32">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O32">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P32">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q32">
-        <v>12.20082982741831</v>
+        <v>64.18451542276533</v>
       </c>
       <c r="R32">
-        <v>12.20082982741831</v>
+        <v>577.6606388048881</v>
       </c>
       <c r="S32">
-        <v>0.0125875565696656</v>
+        <v>0.04921033841929425</v>
       </c>
       <c r="T32">
-        <v>0.0125875565696656</v>
+        <v>0.04921033841929426</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>28.9261576695768</v>
+        <v>30.676648</v>
       </c>
       <c r="H33">
-        <v>28.9261576695768</v>
+        <v>92.029944</v>
       </c>
       <c r="I33">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="J33">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N33">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O33">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P33">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q33">
-        <v>71.37088833783362</v>
+        <v>75.72117446606933</v>
       </c>
       <c r="R33">
-        <v>71.37088833783362</v>
+        <v>681.4905701946241</v>
       </c>
       <c r="S33">
-        <v>0.07363311406580499</v>
+        <v>0.05805550756966597</v>
       </c>
       <c r="T33">
-        <v>0.07363311406580499</v>
+        <v>0.05805550756966597</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>28.9261576695768</v>
+        <v>30.676648</v>
       </c>
       <c r="H34">
-        <v>28.9261576695768</v>
+        <v>92.029944</v>
       </c>
       <c r="I34">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="J34">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N34">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O34">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P34">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q34">
-        <v>5.924347159640015</v>
+        <v>9.691826785879998</v>
       </c>
       <c r="R34">
-        <v>5.924347159640015</v>
+        <v>87.22644107292</v>
       </c>
       <c r="S34">
-        <v>0.006112129753889541</v>
+        <v>0.007430734233839405</v>
       </c>
       <c r="T34">
-        <v>0.006112129753889541</v>
+        <v>0.007430734233839405</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>28.9261576695768</v>
+        <v>30.676648</v>
       </c>
       <c r="H35">
-        <v>28.9261576695768</v>
+        <v>92.029944</v>
       </c>
       <c r="I35">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="J35">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N35">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O35">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P35">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q35">
-        <v>11.70683307463467</v>
+        <v>14.43539776831734</v>
       </c>
       <c r="R35">
-        <v>11.70683307463467</v>
+        <v>129.918579914856</v>
       </c>
       <c r="S35">
-        <v>0.01207790172168787</v>
+        <v>0.01106763531230248</v>
       </c>
       <c r="T35">
-        <v>0.01207790172168787</v>
+        <v>0.01106763531230249</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>28.9261576695768</v>
+        <v>30.676648</v>
       </c>
       <c r="H36">
-        <v>28.9261576695768</v>
+        <v>92.029944</v>
       </c>
       <c r="I36">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="J36">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N36">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O36">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P36">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q36">
-        <v>318.5869216913646</v>
+        <v>346.394144413328</v>
       </c>
       <c r="R36">
-        <v>318.5869216913646</v>
+        <v>3117.547299719952</v>
       </c>
       <c r="S36">
-        <v>0.3286850940362834</v>
+        <v>0.265580770700899</v>
       </c>
       <c r="T36">
-        <v>0.3286850940362834</v>
+        <v>0.265580770700899</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>28.9261576695768</v>
+        <v>30.676648</v>
       </c>
       <c r="H37">
-        <v>28.9261576695768</v>
+        <v>92.029944</v>
       </c>
       <c r="I37">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="J37">
-        <v>0.4395713812370263</v>
+        <v>0.3975091232999413</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N37">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O37">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P37">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q37">
-        <v>6.276636079057052</v>
+        <v>8.039817712234667</v>
       </c>
       <c r="R37">
-        <v>6.276636079057052</v>
+        <v>72.358359410112</v>
       </c>
       <c r="S37">
-        <v>0.006475585089694898</v>
+        <v>0.006164137063940121</v>
       </c>
       <c r="T37">
-        <v>0.006475585089694898</v>
+        <v>0.006164137063940121</v>
       </c>
     </row>
   </sheetData>
